--- a/WSC/Test Report/SLCM/WSC SLCM_Rewards and Achievements.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Rewards and Achievements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
+  </si>
+  <si>
+    <t>Actual Results (Trainer)</t>
   </si>
   <si>
     <t>Comment</t>
@@ -375,12 +378,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Login As Academics User</t>
-  </si>
-  <si>
-    <t>Academics User can Read, Write, Create, Delete but cannot Select, Submit, cancel, Amend</t>
   </si>
   <si>
     <t>Login As Student</t>
@@ -1131,7 +1128,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,9 +1147,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1201,9 +1195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1213,14 +1204,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1807,24 +1792,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="58.5714285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="42" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1834,13 +1821,15 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1853,121 +1842,137 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="75" spans="1:6">
-      <c r="A7" s="9">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="75" spans="1:8">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="3:6">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="3:8">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="14">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:8">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="16">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:8">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1975,670 +1980,855 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="6:6">
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="34" customHeight="1" spans="1:6">
-      <c r="A20" s="19" t="s">
+    <row r="19" s="1" customFormat="1" spans="6:8">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
+      <c r="A20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A21" s="20">
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A23" s="24">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+      <c r="A24" s="25"/>
+      <c r="B24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A25" s="24">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A27" s="24">
+        <v>5</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A29" s="24">
+        <v>6</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A31" s="24">
+        <v>7</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A33" s="27">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A34" s="28"/>
+      <c r="B34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A35" s="29">
+        <v>9</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A36" s="29">
+        <v>10</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A37" s="30">
+        <v>11</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A38" s="30">
+        <v>12</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="60" spans="1:8">
+      <c r="A39" s="30">
+        <v>13</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:8">
+      <c r="A40" s="29"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:8">
+      <c r="A41" s="29"/>
+      <c r="B41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:8">
+      <c r="A42" s="29"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A43" s="29">
+        <v>14</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A44" s="29">
+        <v>15</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A45" s="29">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A46" s="32">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A47" s="32">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:8">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:8">
+      <c r="A49" s="29"/>
+      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:8">
+      <c r="A50" s="29"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A51" s="29">
+        <v>19</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A52" s="29">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A53" s="29">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A54" s="29">
+        <v>22</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:8">
+      <c r="A55" s="29"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:8">
+      <c r="A56" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A57" s="38">
+        <v>23</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A58" s="38">
+        <v>24</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A59" s="38">
         <v>26</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:6">
-      <c r="A22" s="24">
-        <v>2</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A23" s="26">
-        <v>3</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A25" s="26">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="28"/>
-      <c r="B26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="26">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="28"/>
-      <c r="B28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="26">
-        <v>6</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="23"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="28"/>
-      <c r="B30" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="26">
-        <v>7</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A32" s="28"/>
-      <c r="B32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="31">
-        <v>8</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="32"/>
-      <c r="B34" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A35" s="33">
-        <v>9</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A36" s="33">
-        <v>10</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="34">
-        <v>11</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A38" s="34">
-        <v>12</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A39" s="34">
-        <v>13</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="33"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:6">
-      <c r="A41" s="33"/>
-      <c r="B41" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="33"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="33">
-        <v>14</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="33">
-        <v>15</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="33">
-        <v>16</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="36">
-        <v>17</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="36">
-        <v>18</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="33"/>
-      <c r="B49" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="33"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="33">
-        <v>19</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="33">
-        <v>20</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A53" s="33">
-        <v>21</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:6">
-      <c r="A54" s="33">
-        <v>22</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:6">
-      <c r="A55" s="33"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:6">
-      <c r="A56" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A57" s="42">
-        <v>23</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="45"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A58" s="42">
-        <v>24</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="44" t="s">
+      <c r="B59" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="45">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A59" s="42">
-        <v>25</v>
-      </c>
-      <c r="B59" s="46" t="s">
+      <c r="E59" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="45">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="42">
-        <v>26</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="45">
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41">
         <v>299</v>
       </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:5">
       <c r="A61" s="2"/>
@@ -2647,16 +2837,9 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:5">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>

--- a/WSC/Test Report/SLCM/WSC SLCM_Rewards and Achievements.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Rewards and Achievements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Aman Kumar singh</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -50,9 +56,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -586,7 +592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +607,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -786,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -877,6 +889,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1003,7 +1028,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,120 +1040,120 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1165,36 +1190,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1222,8 +1247,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1231,6 +1271,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1241,6 +1290,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,8 +1846,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1845,15 +1897,23 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1865,11 +1925,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1880,7 +1939,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1896,10 +1955,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1909,11 +1968,11 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:8">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>13</v>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1923,11 +1982,11 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:8">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>14</v>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1937,43 +1996,43 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>15</v>
+      <c r="B13" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>16</v>
+      <c r="B14" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>17</v>
+      <c r="B15" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>6</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>18</v>
+      <c r="B16" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>7</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>19</v>
+      <c r="B17" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:2">
@@ -1985,841 +2044,841 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="18" t="s">
+    <row r="20" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>1</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="12"/>
+      <c r="D21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A22" s="22">
         <v>2</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="C22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A23" s="24">
         <v>3</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>34</v>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="50" customHeight="1" spans="1:8">
       <c r="A24" s="25"/>
-      <c r="B24" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="12"/>
+      <c r="C24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A25" s="24">
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A26" s="25"/>
       <c r="B26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A27" s="24">
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A28" s="25"/>
-      <c r="B28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="12"/>
+      <c r="B28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A29" s="24">
         <v>6</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>48</v>
+      <c r="B29" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A30" s="25"/>
       <c r="B30" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A31" s="24">
         <v>7</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>30</v>
+      <c r="E31" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A32" s="25"/>
-      <c r="B32" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="12"/>
+      <c r="B32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A33" s="27">
         <v>8</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="12"/>
+      <c r="C33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A34" s="28"/>
-      <c r="B34" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="12"/>
+      <c r="B34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A35" s="29">
         <v>9</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="12"/>
+      <c r="C35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A36" s="29">
         <v>10</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="12"/>
+      <c r="C36" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A37" s="30">
         <v>11</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="12"/>
+      <c r="C37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A38" s="30">
         <v>12</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="12"/>
+      <c r="C38" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A39" s="30">
         <v>13</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="12"/>
+      <c r="C39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:8">
       <c r="A40" s="29"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:8">
       <c r="A41" s="29"/>
-      <c r="B41" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:8">
       <c r="A42" s="29"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A43" s="29">
         <v>14</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" s="12"/>
+      <c r="B43" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A44" s="29">
         <v>15</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" s="12"/>
+      <c r="B44" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A45" s="29">
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" s="12"/>
+      <c r="D45" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A46" s="32">
+      <c r="A46" s="37">
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A47" s="32">
+      <c r="A47" s="37">
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="12"/>
+      <c r="C47" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:8">
       <c r="A49" s="29"/>
-      <c r="B49" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="B49" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:8">
       <c r="A50" s="29"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A51" s="29">
         <v>19</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="12"/>
+      <c r="B51" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A52" s="29">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A53" s="29">
         <v>21</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A54" s="29">
         <v>22</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" s="12"/>
+      <c r="C54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:8">
       <c r="A55" s="29"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="34"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:8">
-      <c r="A56" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37" t="s">
-        <v>86</v>
+      <c r="A56" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A57" s="38">
+      <c r="A57" s="47">
         <v>23</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
+      <c r="B57" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A58" s="38">
+      <c r="A58" s="47">
         <v>24</v>
       </c>
-      <c r="B58" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="40" t="s">
+      <c r="B58" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="C58" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41">
+      <c r="D58" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50">
         <v>298</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="30" spans="1:8">
-      <c r="A59" s="38">
+      <c r="A59" s="47">
         <v>26</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="E59" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50">
         <v>299</v>
       </c>
     </row>
@@ -2838,8 +2897,10 @@
       <c r="E61" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B49:H49"/>
     <mergeCell ref="A56:E56"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
